--- a/INITIAL_DATA/Tariff/Raskrytie_informatsii_02_2021_3_TSK.xlsx
+++ b/INITIAL_DATA/Tariff/Raskrytie_informatsii_02_2021_3_TSK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\tovstyuk\Desktop\Мониторинг филиалы\Разное по расчетам\Работа по цене\для сайта\Раскрытие информации 2021\Раскрытие информации февраль\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0386e48cebf3007/Документы/GitHub/Local_Control_system/INITIAL_DATA/Tariff/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E727BE15FFBE20DB3F6A88BAA6BBE5014AB3A8DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="24720" windowHeight="12225" tabRatio="966"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="966" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 ЦК" sheetId="21" r:id="rId1"/>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -389,12 +390,15 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -402,18 +406,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 2 2 2" xfId="4"/>
-    <cellStyle name="Обычный 2 3" xfId="5"/>
-    <cellStyle name="㼿㼿?" xfId="1"/>
-    <cellStyle name="㼿㼿㼿㼿? 2" xfId="6"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="㼿㼿?" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="㼿㼿㼿㼿? 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,6 +505,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -714,87 +749,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y391"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K284" sqref="K284"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="7.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="25" width="7.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.44140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-    </row>
-    <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="4" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -803,32 +838,32 @@
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -3065,32 +3100,32 @@
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
@@ -5327,32 +5362,32 @@
       <c r="A68" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
@@ -7589,32 +7624,32 @@
       <c r="A99" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
-      <c r="X99" s="9"/>
-      <c r="Y99" s="9"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
@@ -9847,7 +9882,7 @@
         <v>6994.29</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>31</v>
       </c>
@@ -9865,17 +9900,17 @@
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
-      <c r="U131" s="13">
+      <c r="U131" s="9">
         <v>812867.45</v>
       </c>
-      <c r="V131" s="13"/>
-    </row>
-    <row r="134" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V131" s="9"/>
+    </row>
+    <row r="134" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>26</v>
       </c>
@@ -9884,32 +9919,32 @@
       <c r="A136" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="9"/>
-      <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
-      <c r="U136" s="9"/>
-      <c r="V136" s="9"/>
-      <c r="W136" s="9"/>
-      <c r="X136" s="9"/>
-      <c r="Y136" s="9"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="11"/>
+      <c r="U136" s="11"/>
+      <c r="V136" s="11"/>
+      <c r="W136" s="11"/>
+      <c r="X136" s="11"/>
+      <c r="Y136" s="11"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
@@ -12146,32 +12181,32 @@
       <c r="A167" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
-      <c r="M167" s="9"/>
-      <c r="N167" s="9"/>
-      <c r="O167" s="9"/>
-      <c r="P167" s="9"/>
-      <c r="Q167" s="9"/>
-      <c r="R167" s="9"/>
-      <c r="S167" s="9"/>
-      <c r="T167" s="9"/>
-      <c r="U167" s="9"/>
-      <c r="V167" s="9"/>
-      <c r="W167" s="9"/>
-      <c r="X167" s="9"/>
-      <c r="Y167" s="9"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="11"/>
+      <c r="S167" s="11"/>
+      <c r="T167" s="11"/>
+      <c r="U167" s="11"/>
+      <c r="V167" s="11"/>
+      <c r="W167" s="11"/>
+      <c r="X167" s="11"/>
+      <c r="Y167" s="11"/>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
@@ -14408,32 +14443,32 @@
       <c r="A198" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-      <c r="I198" s="9"/>
-      <c r="J198" s="9"/>
-      <c r="K198" s="9"/>
-      <c r="L198" s="9"/>
-      <c r="M198" s="9"/>
-      <c r="N198" s="9"/>
-      <c r="O198" s="9"/>
-      <c r="P198" s="9"/>
-      <c r="Q198" s="9"/>
-      <c r="R198" s="9"/>
-      <c r="S198" s="9"/>
-      <c r="T198" s="9"/>
-      <c r="U198" s="9"/>
-      <c r="V198" s="9"/>
-      <c r="W198" s="9"/>
-      <c r="X198" s="9"/>
-      <c r="Y198" s="9"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
+      <c r="Q198" s="11"/>
+      <c r="R198" s="11"/>
+      <c r="S198" s="11"/>
+      <c r="T198" s="11"/>
+      <c r="U198" s="11"/>
+      <c r="V198" s="11"/>
+      <c r="W198" s="11"/>
+      <c r="X198" s="11"/>
+      <c r="Y198" s="11"/>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
@@ -16670,32 +16705,32 @@
       <c r="A229" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
-      <c r="F229" s="9"/>
-      <c r="G229" s="9"/>
-      <c r="H229" s="9"/>
-      <c r="I229" s="9"/>
-      <c r="J229" s="9"/>
-      <c r="K229" s="9"/>
-      <c r="L229" s="9"/>
-      <c r="M229" s="9"/>
-      <c r="N229" s="9"/>
-      <c r="O229" s="9"/>
-      <c r="P229" s="9"/>
-      <c r="Q229" s="9"/>
-      <c r="R229" s="9"/>
-      <c r="S229" s="9"/>
-      <c r="T229" s="9"/>
-      <c r="U229" s="9"/>
-      <c r="V229" s="9"/>
-      <c r="W229" s="9"/>
-      <c r="X229" s="9"/>
-      <c r="Y229" s="9"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
+      <c r="Q229" s="11"/>
+      <c r="R229" s="11"/>
+      <c r="S229" s="11"/>
+      <c r="T229" s="11"/>
+      <c r="U229" s="11"/>
+      <c r="V229" s="11"/>
+      <c r="W229" s="11"/>
+      <c r="X229" s="11"/>
+      <c r="Y229" s="11"/>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
@@ -18928,7 +18963,7 @@
         <v>6731.8220000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>31</v>
       </c>
@@ -18946,17 +18981,17 @@
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
-      <c r="U261" s="13">
+      <c r="U261" s="9">
         <v>812867.45</v>
       </c>
-      <c r="V261" s="13"/>
-    </row>
-    <row r="264" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V261" s="9"/>
+    </row>
+    <row r="264" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>26</v>
       </c>
@@ -18965,32 +19000,32 @@
       <c r="A266" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="9"/>
-      <c r="F266" s="9"/>
-      <c r="G266" s="9"/>
-      <c r="H266" s="9"/>
-      <c r="I266" s="9"/>
-      <c r="J266" s="9"/>
-      <c r="K266" s="9"/>
-      <c r="L266" s="9"/>
-      <c r="M266" s="9"/>
-      <c r="N266" s="9"/>
-      <c r="O266" s="9"/>
-      <c r="P266" s="9"/>
-      <c r="Q266" s="9"/>
-      <c r="R266" s="9"/>
-      <c r="S266" s="9"/>
-      <c r="T266" s="9"/>
-      <c r="U266" s="9"/>
-      <c r="V266" s="9"/>
-      <c r="W266" s="9"/>
-      <c r="X266" s="9"/>
-      <c r="Y266" s="9"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="11"/>
+      <c r="R266" s="11"/>
+      <c r="S266" s="11"/>
+      <c r="T266" s="11"/>
+      <c r="U266" s="11"/>
+      <c r="V266" s="11"/>
+      <c r="W266" s="11"/>
+      <c r="X266" s="11"/>
+      <c r="Y266" s="11"/>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
@@ -21227,32 +21262,32 @@
       <c r="A297" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
-      <c r="E297" s="9"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="9"/>
-      <c r="H297" s="9"/>
-      <c r="I297" s="9"/>
-      <c r="J297" s="9"/>
-      <c r="K297" s="9"/>
-      <c r="L297" s="9"/>
-      <c r="M297" s="9"/>
-      <c r="N297" s="9"/>
-      <c r="O297" s="9"/>
-      <c r="P297" s="9"/>
-      <c r="Q297" s="9"/>
-      <c r="R297" s="9"/>
-      <c r="S297" s="9"/>
-      <c r="T297" s="9"/>
-      <c r="U297" s="9"/>
-      <c r="V297" s="9"/>
-      <c r="W297" s="9"/>
-      <c r="X297" s="9"/>
-      <c r="Y297" s="9"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
+      <c r="H297" s="11"/>
+      <c r="I297" s="11"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="11"/>
+      <c r="L297" s="11"/>
+      <c r="M297" s="11"/>
+      <c r="N297" s="11"/>
+      <c r="O297" s="11"/>
+      <c r="P297" s="11"/>
+      <c r="Q297" s="11"/>
+      <c r="R297" s="11"/>
+      <c r="S297" s="11"/>
+      <c r="T297" s="11"/>
+      <c r="U297" s="11"/>
+      <c r="V297" s="11"/>
+      <c r="W297" s="11"/>
+      <c r="X297" s="11"/>
+      <c r="Y297" s="11"/>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" s="10"/>
@@ -23489,32 +23524,32 @@
       <c r="A328" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C328" s="9"/>
-      <c r="D328" s="9"/>
-      <c r="E328" s="9"/>
-      <c r="F328" s="9"/>
-      <c r="G328" s="9"/>
-      <c r="H328" s="9"/>
-      <c r="I328" s="9"/>
-      <c r="J328" s="9"/>
-      <c r="K328" s="9"/>
-      <c r="L328" s="9"/>
-      <c r="M328" s="9"/>
-      <c r="N328" s="9"/>
-      <c r="O328" s="9"/>
-      <c r="P328" s="9"/>
-      <c r="Q328" s="9"/>
-      <c r="R328" s="9"/>
-      <c r="S328" s="9"/>
-      <c r="T328" s="9"/>
-      <c r="U328" s="9"/>
-      <c r="V328" s="9"/>
-      <c r="W328" s="9"/>
-      <c r="X328" s="9"/>
-      <c r="Y328" s="9"/>
+      <c r="C328" s="11"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
+      <c r="F328" s="11"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="11"/>
+      <c r="I328" s="11"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="11"/>
+      <c r="L328" s="11"/>
+      <c r="M328" s="11"/>
+      <c r="N328" s="11"/>
+      <c r="O328" s="11"/>
+      <c r="P328" s="11"/>
+      <c r="Q328" s="11"/>
+      <c r="R328" s="11"/>
+      <c r="S328" s="11"/>
+      <c r="T328" s="11"/>
+      <c r="U328" s="11"/>
+      <c r="V328" s="11"/>
+      <c r="W328" s="11"/>
+      <c r="X328" s="11"/>
+      <c r="Y328" s="11"/>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" s="10"/>
@@ -25751,32 +25786,32 @@
       <c r="A359" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C359" s="9"/>
-      <c r="D359" s="9"/>
-      <c r="E359" s="9"/>
-      <c r="F359" s="9"/>
-      <c r="G359" s="9"/>
-      <c r="H359" s="9"/>
-      <c r="I359" s="9"/>
-      <c r="J359" s="9"/>
-      <c r="K359" s="9"/>
-      <c r="L359" s="9"/>
-      <c r="M359" s="9"/>
-      <c r="N359" s="9"/>
-      <c r="O359" s="9"/>
-      <c r="P359" s="9"/>
-      <c r="Q359" s="9"/>
-      <c r="R359" s="9"/>
-      <c r="S359" s="9"/>
-      <c r="T359" s="9"/>
-      <c r="U359" s="9"/>
-      <c r="V359" s="9"/>
-      <c r="W359" s="9"/>
-      <c r="X359" s="9"/>
-      <c r="Y359" s="9"/>
+      <c r="C359" s="11"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="11"/>
+      <c r="F359" s="11"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="11"/>
+      <c r="I359" s="11"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="11"/>
+      <c r="L359" s="11"/>
+      <c r="M359" s="11"/>
+      <c r="N359" s="11"/>
+      <c r="O359" s="11"/>
+      <c r="P359" s="11"/>
+      <c r="Q359" s="11"/>
+      <c r="R359" s="11"/>
+      <c r="S359" s="11"/>
+      <c r="T359" s="11"/>
+      <c r="U359" s="11"/>
+      <c r="V359" s="11"/>
+      <c r="W359" s="11"/>
+      <c r="X359" s="11"/>
+      <c r="Y359" s="11"/>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" s="10"/>
@@ -28009,7 +28044,7 @@
         <v>6718.6319999999996</v>
       </c>
     </row>
-    <row r="391" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>31</v>
       </c>
@@ -28027,13 +28062,34 @@
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
-      <c r="U391" s="13">
+      <c r="U391" s="9">
         <v>812867.45</v>
       </c>
-      <c r="V391" s="13"/>
+      <c r="V391" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:Y2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:Y37"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:Y68"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:Y99"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:Y136"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:Y167"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:Y198"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:Y229"/>
+    <mergeCell ref="U261:V261"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B266:Y266"/>
     <mergeCell ref="U391:V391"/>
     <mergeCell ref="A297:A298"/>
     <mergeCell ref="B297:Y297"/>
@@ -28041,27 +28097,6 @@
     <mergeCell ref="B328:Y328"/>
     <mergeCell ref="A359:A360"/>
     <mergeCell ref="B359:Y359"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="B229:Y229"/>
-    <mergeCell ref="U261:V261"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B266:Y266"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:Y136"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:Y167"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:Y198"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:Y68"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:Y99"/>
-    <mergeCell ref="U131:V131"/>
-    <mergeCell ref="A1:Y2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:Y37"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.55118110236220474" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="20" orientation="landscape" r:id="rId1"/>
